--- a/FLUXO DE CAIXA SETEMBRO 2019/30-09-2019_FluxoDeCaixa.xlsx
+++ b/FLUXO DE CAIXA SETEMBRO 2019/30-09-2019_FluxoDeCaixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael_Campos\Documents\GitHub\ConnectFibra\FLUXO DE CAIXA SETEMBRO 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CA31E1-A4A3-4D4C-80B3-3ECA1043E465}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB88C23-90A1-4789-80BD-1D35FBE6F312}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9152A456-9720-4D0C-842A-50118CAD28D0}"/>
   </bookViews>
